--- a/12-PowerBI/Researchers.xlsx
+++ b/12-PowerBI/Researchers.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\projects\Power BI Samples\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\course\DADS5001-Data-Analytics-and-Data-Science-Tools-and-Programming\12-PowerBI\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -13,8 +13,8 @@
   </bookViews>
   <sheets>
     <sheet name="tbResearcher" sheetId="1" r:id="rId1"/>
-    <sheet name="paper" sheetId="2" r:id="rId2"/>
-    <sheet name="Paper Topic" sheetId="3" r:id="rId3"/>
+    <sheet name="tbPaper" sheetId="2" r:id="rId2"/>
+    <sheet name="tbPaperTopic" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -534,7 +534,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -607,7 +607,7 @@
         <v>23</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E4" s="1">
         <v>72000</v>
@@ -743,7 +743,7 @@
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
